--- a/Auswertung/Auswertung/Geld1.xlsx
+++ b/Auswertung/Auswertung/Geld1.xlsx
@@ -1,85 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Gen-EM\Umfrage 1 Auswertung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E1629E-5005-4F43-B68A-3DD16CB92BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>&lt; 150€</t>
-  </si>
-  <si>
-    <t>&gt; 750€</t>
-  </si>
-  <si>
-    <t>150 - 300€</t>
-  </si>
-  <si>
-    <t>301 - 450€</t>
-  </si>
-  <si>
-    <t>451 - 600€</t>
-  </si>
-  <si>
-    <t>601 - 750€</t>
-  </si>
-  <si>
-    <t>Kein zusätzliches Geld</t>
-  </si>
-  <si>
-    <t>Q49 - Qie viel würdet ihr selber bezahlen</t>
-  </si>
-  <si>
-    <t>Q50 Zahl</t>
-  </si>
-  <si>
-    <t>Q50 Anteil</t>
-  </si>
-  <si>
-    <t>Q49 N</t>
-  </si>
-  <si>
-    <t>Q49 Anteil</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Q49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 150€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 750€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 - 300€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301 - 450€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451 - 600€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601 - 750€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein zusätzliches Geld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -104,31 +75,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,156 +366,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="34.9296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.352941176470588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.235294117647059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0490196078431373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.235294117647059</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.9215686274509803E-2</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.8627450980392204E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.35294117647058798</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.29411764705882398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.23529411764705899</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.19607843137254899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>4.9019607843137303E-2</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.11764705882352899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.23529411764705899</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.15686274509803899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.9215686274509803E-2</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.8431372549019607E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.9019607843137303E-2</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8.8235294117647106E-2</v>
+      <c r="C8" t="n">
+        <v>0.0490196078431373</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>